--- a/sorted_data/comment/all_rows_classified.xlsx
+++ b/sorted_data/comment/all_rows_classified.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17161" uniqueCount="3069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17280" uniqueCount="3069">
   <si>
     <t>recherche</t>
   </si>
@@ -11029,6 +11029,9 @@
       <c r="C39" t="s">
         <v>5</v>
       </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
@@ -11924,6 +11927,9 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
+      <c r="D65" t="s">
+        <v>8</v>
+      </c>
       <c r="F65" t="s">
         <v>70</v>
       </c>
@@ -12169,6 +12175,9 @@
       <c r="C72" t="s">
         <v>5</v>
       </c>
+      <c r="D72" t="s">
+        <v>8</v>
+      </c>
       <c r="F72" t="s">
         <v>77</v>
       </c>
@@ -13521,6 +13530,9 @@
       <c r="C109" t="s">
         <v>5</v>
       </c>
+      <c r="D109" t="s">
+        <v>8</v>
+      </c>
       <c r="F109" t="s">
         <v>107</v>
       </c>
@@ -13874,6 +13886,9 @@
       <c r="C119" t="s">
         <v>5</v>
       </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
       <c r="F119" t="s">
         <v>117</v>
       </c>
@@ -13979,6 +13994,9 @@
       <c r="C122" t="s">
         <v>5</v>
       </c>
+      <c r="D122" t="s">
+        <v>8</v>
+      </c>
       <c r="F122" t="s">
         <v>120</v>
       </c>
@@ -15269,6 +15287,9 @@
       <c r="C158" t="s">
         <v>5</v>
       </c>
+      <c r="D158" t="s">
+        <v>8</v>
+      </c>
       <c r="F158" t="s">
         <v>153</v>
       </c>
@@ -16464,6 +16485,9 @@
       <c r="C190" t="s">
         <v>5</v>
       </c>
+      <c r="D190" t="s">
+        <v>8</v>
+      </c>
       <c r="F190" t="s">
         <v>117</v>
       </c>
@@ -17527,6 +17551,9 @@
       <c r="C219" t="s">
         <v>5</v>
       </c>
+      <c r="D219" t="s">
+        <v>8</v>
+      </c>
       <c r="F219" t="s">
         <v>199</v>
       </c>
@@ -18047,6 +18074,9 @@
       <c r="C233" t="s">
         <v>5</v>
       </c>
+      <c r="D233" t="s">
+        <v>8</v>
+      </c>
       <c r="F233" t="s">
         <v>211</v>
       </c>
@@ -18199,6 +18229,9 @@
       <c r="C237" t="s">
         <v>5</v>
       </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
       <c r="F237" t="s">
         <v>214</v>
       </c>
@@ -18611,6 +18644,9 @@
       <c r="C248" t="s">
         <v>5</v>
       </c>
+      <c r="D248" t="s">
+        <v>8</v>
+      </c>
       <c r="F248" t="s">
         <v>222</v>
       </c>
@@ -18684,6 +18720,9 @@
       <c r="C250" t="s">
         <v>5</v>
       </c>
+      <c r="D250" t="s">
+        <v>8</v>
+      </c>
       <c r="F250" t="s">
         <v>117</v>
       </c>
@@ -18938,6 +18977,9 @@
       <c r="C257" t="s">
         <v>5</v>
       </c>
+      <c r="D257" t="s">
+        <v>8</v>
+      </c>
       <c r="F257" t="s">
         <v>120</v>
       </c>
@@ -19090,6 +19132,9 @@
       <c r="C261" t="s">
         <v>5</v>
       </c>
+      <c r="D261" t="s">
+        <v>8</v>
+      </c>
       <c r="F261" t="s">
         <v>231</v>
       </c>
@@ -19400,6 +19445,9 @@
       <c r="C269" t="s">
         <v>5</v>
       </c>
+      <c r="D269" t="s">
+        <v>8</v>
+      </c>
       <c r="F269" t="s">
         <v>237</v>
       </c>
@@ -19555,6 +19603,9 @@
       <c r="C273" t="s">
         <v>5</v>
       </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
       <c r="F273" t="s">
         <v>239</v>
       </c>
@@ -19765,6 +19816,9 @@
       <c r="C279" t="s">
         <v>5</v>
       </c>
+      <c r="D279" t="s">
+        <v>8</v>
+      </c>
       <c r="F279" t="s">
         <v>245</v>
       </c>
@@ -20303,7 +20357,7 @@
         <v>5</v>
       </c>
       <c r="D294" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F294" t="s">
         <v>257</v>
@@ -20483,6 +20537,9 @@
       <c r="C299" t="s">
         <v>5</v>
       </c>
+      <c r="D299" t="s">
+        <v>8</v>
+      </c>
       <c r="F299" t="s">
         <v>120</v>
       </c>
@@ -21417,6 +21474,9 @@
       <c r="C325" t="s">
         <v>5</v>
       </c>
+      <c r="D325" t="s">
+        <v>8</v>
+      </c>
       <c r="F325" t="s">
         <v>117</v>
       </c>
@@ -21779,6 +21839,9 @@
       <c r="C335" t="s">
         <v>5</v>
       </c>
+      <c r="D335" t="s">
+        <v>8</v>
+      </c>
       <c r="F335" t="s">
         <v>290</v>
       </c>
@@ -21922,6 +21985,9 @@
       <c r="C339" t="s">
         <v>5</v>
       </c>
+      <c r="D339" t="s">
+        <v>8</v>
+      </c>
       <c r="F339" t="s">
         <v>294</v>
       </c>
@@ -22231,6 +22297,9 @@
       <c r="C348" t="s">
         <v>5</v>
       </c>
+      <c r="D348" t="s">
+        <v>8</v>
+      </c>
       <c r="F348" t="s">
         <v>303</v>
       </c>
@@ -22614,6 +22683,9 @@
       <c r="C358" t="s">
         <v>5</v>
       </c>
+      <c r="D358" t="s">
+        <v>8</v>
+      </c>
       <c r="F358" t="s">
         <v>308</v>
       </c>
@@ -23694,6 +23766,9 @@
       <c r="C388" t="s">
         <v>5</v>
       </c>
+      <c r="D388" t="s">
+        <v>8</v>
+      </c>
       <c r="F388" t="s">
         <v>328</v>
       </c>
@@ -24117,6 +24192,9 @@
       <c r="C400" t="s">
         <v>5</v>
       </c>
+      <c r="D400" t="s">
+        <v>8</v>
+      </c>
       <c r="F400" t="s">
         <v>338</v>
       </c>
@@ -25982,6 +26060,9 @@
       <c r="C452" t="s">
         <v>5</v>
       </c>
+      <c r="D452" t="s">
+        <v>8</v>
+      </c>
       <c r="F452" t="s">
         <v>378</v>
       </c>
@@ -26397,6 +26478,9 @@
       <c r="C463" t="s">
         <v>5</v>
       </c>
+      <c r="D463" t="s">
+        <v>8</v>
+      </c>
       <c r="F463" t="s">
         <v>385</v>
       </c>
@@ -26695,6 +26779,9 @@
       <c r="C471" t="s">
         <v>5</v>
       </c>
+      <c r="D471" t="s">
+        <v>8</v>
+      </c>
       <c r="F471" t="s">
         <v>378</v>
       </c>
@@ -26762,6 +26849,9 @@
       <c r="C473" t="s">
         <v>5</v>
       </c>
+      <c r="D473" t="s">
+        <v>8</v>
+      </c>
       <c r="F473" t="s">
         <v>390</v>
       </c>
@@ -29432,6 +29522,9 @@
       <c r="C545" t="s">
         <v>5</v>
       </c>
+      <c r="D545" t="s">
+        <v>8</v>
+      </c>
       <c r="F545" t="s">
         <v>442</v>
       </c>
@@ -29543,6 +29636,9 @@
       <c r="C548" t="s">
         <v>5</v>
       </c>
+      <c r="D548" t="s">
+        <v>8</v>
+      </c>
       <c r="F548" t="s">
         <v>117</v>
       </c>
@@ -29578,6 +29674,9 @@
       <c r="C549" t="s">
         <v>5</v>
       </c>
+      <c r="D549" t="s">
+        <v>8</v>
+      </c>
       <c r="F549" t="s">
         <v>443</v>
       </c>
@@ -29683,6 +29782,9 @@
       <c r="C552" t="s">
         <v>5</v>
       </c>
+      <c r="D552" t="s">
+        <v>8</v>
+      </c>
       <c r="F552" t="s">
         <v>446</v>
       </c>
@@ -29841,6 +29943,9 @@
       <c r="C556" t="s">
         <v>5</v>
       </c>
+      <c r="D556" t="s">
+        <v>8</v>
+      </c>
       <c r="F556" t="s">
         <v>378</v>
       </c>
@@ -30428,6 +30533,9 @@
       <c r="C572" t="s">
         <v>5</v>
       </c>
+      <c r="D572" t="s">
+        <v>8</v>
+      </c>
       <c r="F572" t="s">
         <v>460</v>
       </c>
@@ -31994,6 +32102,9 @@
       <c r="C614" t="s">
         <v>5</v>
       </c>
+      <c r="D614" t="s">
+        <v>8</v>
+      </c>
       <c r="F614" t="s">
         <v>489</v>
       </c>
@@ -32939,6 +33050,9 @@
       <c r="C641" t="s">
         <v>5</v>
       </c>
+      <c r="D641" t="s">
+        <v>8</v>
+      </c>
       <c r="F641" t="s">
         <v>515</v>
       </c>
@@ -33389,6 +33503,9 @@
       <c r="C653" t="s">
         <v>5</v>
       </c>
+      <c r="D653" t="s">
+        <v>8</v>
+      </c>
       <c r="F653" t="s">
         <v>308</v>
       </c>
@@ -34673,6 +34790,9 @@
       <c r="C689" t="s">
         <v>5</v>
       </c>
+      <c r="D689" t="s">
+        <v>8</v>
+      </c>
       <c r="F689" t="s">
         <v>120</v>
       </c>
@@ -35347,6 +35467,9 @@
       <c r="C708" t="s">
         <v>5</v>
       </c>
+      <c r="D708" t="s">
+        <v>8</v>
+      </c>
       <c r="F708" t="s">
         <v>565</v>
       </c>
@@ -35382,6 +35505,9 @@
       <c r="C709" t="s">
         <v>5</v>
       </c>
+      <c r="D709" t="s">
+        <v>8</v>
+      </c>
       <c r="F709" t="s">
         <v>566</v>
       </c>
@@ -35817,6 +35943,9 @@
       <c r="C721" t="s">
         <v>5</v>
       </c>
+      <c r="D721" t="s">
+        <v>8</v>
+      </c>
       <c r="F721" t="s">
         <v>574</v>
       </c>
@@ -35852,6 +35981,9 @@
       <c r="C722" t="s">
         <v>5</v>
       </c>
+      <c r="D722" t="s">
+        <v>8</v>
+      </c>
       <c r="F722" t="s">
         <v>107</v>
       </c>
@@ -36147,6 +36279,9 @@
       <c r="C730" t="s">
         <v>5</v>
       </c>
+      <c r="D730" t="s">
+        <v>8</v>
+      </c>
       <c r="F730" t="s">
         <v>580</v>
       </c>
@@ -37368,6 +37503,9 @@
       <c r="C763" t="s">
         <v>5</v>
       </c>
+      <c r="D763" t="s">
+        <v>8</v>
+      </c>
       <c r="F763" t="s">
         <v>598</v>
       </c>
@@ -38043,6 +38181,9 @@
       <c r="C781" t="s">
         <v>5</v>
       </c>
+      <c r="D781" t="s">
+        <v>8</v>
+      </c>
       <c r="F781" t="s">
         <v>214</v>
       </c>
@@ -38227,6 +38368,9 @@
       <c r="C786" t="s">
         <v>5</v>
       </c>
+      <c r="D786" t="s">
+        <v>8</v>
+      </c>
       <c r="F786" t="s">
         <v>611</v>
       </c>
@@ -38455,6 +38599,9 @@
       <c r="C792" t="s">
         <v>5</v>
       </c>
+      <c r="D792" t="s">
+        <v>8</v>
+      </c>
       <c r="F792" t="s">
         <v>612</v>
       </c>
@@ -39045,6 +39192,9 @@
       <c r="C808" t="s">
         <v>5</v>
       </c>
+      <c r="D808" t="s">
+        <v>8</v>
+      </c>
       <c r="F808" t="s">
         <v>625</v>
       </c>
@@ -39681,6 +39831,9 @@
       <c r="C826" t="s">
         <v>5</v>
       </c>
+      <c r="D826" t="s">
+        <v>8</v>
+      </c>
       <c r="F826" t="s">
         <v>637</v>
       </c>
@@ -43127,6 +43280,9 @@
       <c r="C920" t="s">
         <v>5</v>
       </c>
+      <c r="D920" t="s">
+        <v>8</v>
+      </c>
       <c r="F920" t="s">
         <v>706</v>
       </c>
@@ -43903,6 +44059,9 @@
       <c r="C942" t="s">
         <v>5</v>
       </c>
+      <c r="D942" t="s">
+        <v>8</v>
+      </c>
       <c r="F942" t="s">
         <v>722</v>
       </c>
@@ -44993,7 +45152,7 @@
         <v>5</v>
       </c>
       <c r="D972" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F972" t="s">
         <v>744</v>
@@ -45535,6 +45694,9 @@
       <c r="C987" t="s">
         <v>5</v>
       </c>
+      <c r="D987" t="s">
+        <v>8</v>
+      </c>
       <c r="F987" t="s">
         <v>754</v>
       </c>
@@ -47524,6 +47686,9 @@
       <c r="C1044" t="s">
         <v>5</v>
       </c>
+      <c r="D1044" t="s">
+        <v>8</v>
+      </c>
       <c r="F1044" t="s">
         <v>303</v>
       </c>
@@ -47559,6 +47724,9 @@
       <c r="C1045" t="s">
         <v>5</v>
       </c>
+      <c r="D1045" t="s">
+        <v>8</v>
+      </c>
       <c r="F1045" t="s">
         <v>799</v>
       </c>
@@ -47740,6 +47908,9 @@
       <c r="C1050" t="s">
         <v>5</v>
       </c>
+      <c r="D1050" t="s">
+        <v>8</v>
+      </c>
       <c r="F1050" t="s">
         <v>803</v>
       </c>
@@ -47924,6 +48095,9 @@
       <c r="C1055" t="s">
         <v>5</v>
       </c>
+      <c r="D1055" t="s">
+        <v>8</v>
+      </c>
       <c r="F1055" t="s">
         <v>446</v>
       </c>
@@ -47997,6 +48171,9 @@
       <c r="C1057" t="s">
         <v>5</v>
       </c>
+      <c r="D1057" t="s">
+        <v>8</v>
+      </c>
       <c r="F1057" t="s">
         <v>446</v>
       </c>
@@ -48654,6 +48831,9 @@
       <c r="C1075" t="s">
         <v>5</v>
       </c>
+      <c r="D1075" t="s">
+        <v>8</v>
+      </c>
       <c r="F1075" t="s">
         <v>117</v>
       </c>
@@ -48858,6 +49038,9 @@
       <c r="C1081" t="s">
         <v>5</v>
       </c>
+      <c r="D1081" t="s">
+        <v>8</v>
+      </c>
       <c r="F1081" t="s">
         <v>120</v>
       </c>
@@ -50109,6 +50292,9 @@
       <c r="C1114" t="s">
         <v>5</v>
       </c>
+      <c r="D1114" t="s">
+        <v>8</v>
+      </c>
       <c r="F1114" t="s">
         <v>836</v>
       </c>
@@ -51947,6 +52133,9 @@
       <c r="C1163" t="s">
         <v>5</v>
       </c>
+      <c r="D1163" t="s">
+        <v>8</v>
+      </c>
       <c r="F1163" t="s">
         <v>862</v>
       </c>
@@ -55580,6 +55769,9 @@
       <c r="C1262" t="s">
         <v>5</v>
       </c>
+      <c r="D1262" t="s">
+        <v>8</v>
+      </c>
       <c r="F1262" t="s">
         <v>214</v>
       </c>
@@ -55656,6 +55848,9 @@
       <c r="C1264" t="s">
         <v>5</v>
       </c>
+      <c r="D1264" t="s">
+        <v>8</v>
+      </c>
       <c r="F1264" t="s">
         <v>925</v>
       </c>
@@ -55799,6 +55994,9 @@
       <c r="C1268" t="s">
         <v>5</v>
       </c>
+      <c r="D1268" t="s">
+        <v>8</v>
+      </c>
       <c r="F1268" t="s">
         <v>928</v>
       </c>
@@ -56030,6 +56228,9 @@
       <c r="C1274" t="s">
         <v>5</v>
       </c>
+      <c r="D1274" t="s">
+        <v>8</v>
+      </c>
       <c r="F1274" t="s">
         <v>120</v>
       </c>
@@ -56766,6 +56967,9 @@
       <c r="C1294" t="s">
         <v>5</v>
       </c>
+      <c r="D1294" t="s">
+        <v>8</v>
+      </c>
       <c r="F1294" t="s">
         <v>946</v>
       </c>
@@ -59806,6 +60010,9 @@
       <c r="C1377" t="s">
         <v>5</v>
       </c>
+      <c r="D1377" t="s">
+        <v>8</v>
+      </c>
       <c r="F1377" t="s">
         <v>1008</v>
       </c>
@@ -61920,6 +62127,9 @@
       <c r="C1435" t="s">
         <v>5</v>
       </c>
+      <c r="D1435" t="s">
+        <v>8</v>
+      </c>
       <c r="F1435" t="s">
         <v>214</v>
       </c>
@@ -62323,6 +62533,9 @@
       <c r="C1446" t="s">
         <v>5</v>
       </c>
+      <c r="D1446" t="s">
+        <v>8</v>
+      </c>
       <c r="F1446" t="s">
         <v>120</v>
       </c>
@@ -62946,6 +63159,9 @@
       <c r="C1462" t="s">
         <v>5</v>
       </c>
+      <c r="D1462" t="s">
+        <v>8</v>
+      </c>
       <c r="F1462" t="s">
         <v>214</v>
       </c>
@@ -63845,6 +64061,9 @@
       <c r="C1487" t="s">
         <v>5</v>
       </c>
+      <c r="D1487" t="s">
+        <v>8</v>
+      </c>
       <c r="F1487" t="s">
         <v>1081</v>
       </c>
@@ -64274,6 +64493,9 @@
       <c r="C1499" t="s">
         <v>5</v>
       </c>
+      <c r="D1499" t="s">
+        <v>8</v>
+      </c>
       <c r="F1499" t="s">
         <v>1088</v>
       </c>
@@ -64729,6 +64951,9 @@
       <c r="C1512" t="s">
         <v>5</v>
       </c>
+      <c r="D1512" t="s">
+        <v>8</v>
+      </c>
       <c r="F1512" t="s">
         <v>1100</v>
       </c>
@@ -64863,6 +65088,9 @@
       <c r="C1516" t="s">
         <v>5</v>
       </c>
+      <c r="D1516" t="s">
+        <v>8</v>
+      </c>
       <c r="F1516" t="s">
         <v>378</v>
       </c>
@@ -66022,6 +66250,9 @@
       <c r="C1548" t="s">
         <v>5</v>
       </c>
+      <c r="D1548" t="s">
+        <v>8</v>
+      </c>
       <c r="F1548" t="s">
         <v>1122</v>
       </c>
@@ -66057,6 +66288,9 @@
       <c r="C1549" t="s">
         <v>5</v>
       </c>
+      <c r="D1549" t="s">
+        <v>8</v>
+      </c>
       <c r="F1549" t="s">
         <v>378</v>
       </c>
@@ -66092,6 +66326,9 @@
       <c r="C1550" t="s">
         <v>5</v>
       </c>
+      <c r="D1550" t="s">
+        <v>8</v>
+      </c>
       <c r="F1550" t="s">
         <v>117</v>
       </c>
@@ -66127,6 +66364,9 @@
       <c r="C1551" t="s">
         <v>5</v>
       </c>
+      <c r="D1551" t="s">
+        <v>8</v>
+      </c>
       <c r="F1551" t="s">
         <v>1123</v>
       </c>
@@ -67031,6 +67271,9 @@
       <c r="C1577" t="s">
         <v>5</v>
       </c>
+      <c r="D1577" t="s">
+        <v>8</v>
+      </c>
       <c r="F1577" t="s">
         <v>1148</v>
       </c>
@@ -67612,6 +67855,9 @@
       <c r="C1593" t="s">
         <v>5</v>
       </c>
+      <c r="D1593" t="s">
+        <v>8</v>
+      </c>
       <c r="F1593" t="s">
         <v>1163</v>
       </c>
@@ -67796,6 +68042,9 @@
       <c r="C1598" t="s">
         <v>5</v>
       </c>
+      <c r="D1598" t="s">
+        <v>8</v>
+      </c>
       <c r="F1598" t="s">
         <v>1167</v>
       </c>
@@ -68234,6 +68483,9 @@
       <c r="C1610" t="s">
         <v>5</v>
       </c>
+      <c r="D1610" t="s">
+        <v>8</v>
+      </c>
       <c r="F1610" t="s">
         <v>378</v>
       </c>
@@ -68929,6 +69181,9 @@
       <c r="C1629" t="s">
         <v>5</v>
       </c>
+      <c r="D1629" t="s">
+        <v>8</v>
+      </c>
       <c r="F1629" t="s">
         <v>1191</v>
       </c>
@@ -69352,6 +69607,9 @@
       <c r="C1641" t="s">
         <v>5</v>
       </c>
+      <c r="D1641" t="s">
+        <v>8</v>
+      </c>
       <c r="F1641" t="s">
         <v>1202</v>
       </c>
@@ -69387,6 +69645,9 @@
       <c r="C1642" t="s">
         <v>5</v>
       </c>
+      <c r="D1642" t="s">
+        <v>8</v>
+      </c>
       <c r="F1642" t="s">
         <v>117</v>
       </c>
@@ -71431,6 +71692,9 @@
       <c r="C1698" t="s">
         <v>5</v>
       </c>
+      <c r="D1698" t="s">
+        <v>8</v>
+      </c>
       <c r="F1698" t="s">
         <v>1249</v>
       </c>
@@ -71790,6 +72054,9 @@
       <c r="C1708" t="s">
         <v>5</v>
       </c>
+      <c r="D1708" t="s">
+        <v>8</v>
+      </c>
       <c r="F1708" t="s">
         <v>1258</v>
       </c>
@@ -72438,6 +72705,9 @@
       <c r="C1726" t="s">
         <v>5</v>
       </c>
+      <c r="D1726" t="s">
+        <v>8</v>
+      </c>
       <c r="F1726" t="s">
         <v>1274</v>
       </c>
@@ -72473,6 +72743,9 @@
       <c r="C1727" t="s">
         <v>5</v>
       </c>
+      <c r="D1727" t="s">
+        <v>8</v>
+      </c>
       <c r="F1727" t="s">
         <v>214</v>
       </c>
@@ -73801,6 +74074,9 @@
       <c r="C1764" t="s">
         <v>5</v>
       </c>
+      <c r="D1764" t="s">
+        <v>8</v>
+      </c>
       <c r="F1764" t="s">
         <v>117</v>
       </c>
@@ -74660,6 +74936,9 @@
       <c r="C1787" t="s">
         <v>5</v>
       </c>
+      <c r="D1787" t="s">
+        <v>8</v>
+      </c>
       <c r="F1787" t="s">
         <v>378</v>
       </c>
@@ -75110,6 +75389,9 @@
       <c r="C1799" t="s">
         <v>5</v>
       </c>
+      <c r="D1799" t="s">
+        <v>8</v>
+      </c>
       <c r="F1799" t="s">
         <v>1329</v>
       </c>
@@ -76193,6 +76475,9 @@
       <c r="C1829" t="s">
         <v>5</v>
       </c>
+      <c r="D1829" t="s">
+        <v>8</v>
+      </c>
       <c r="F1829" t="s">
         <v>214</v>
       </c>
@@ -80873,6 +81158,9 @@
       <c r="C1955" t="s">
         <v>5</v>
       </c>
+      <c r="D1955" t="s">
+        <v>8</v>
+      </c>
       <c r="F1955" t="s">
         <v>1454</v>
       </c>
@@ -80981,6 +81269,9 @@
       <c r="C1958" t="s">
         <v>5</v>
       </c>
+      <c r="D1958" t="s">
+        <v>8</v>
+      </c>
       <c r="F1958" t="s">
         <v>1456</v>
       </c>
@@ -82304,6 +82595,9 @@
       <c r="C1994" t="s">
         <v>5</v>
       </c>
+      <c r="D1994" t="s">
+        <v>8</v>
+      </c>
       <c r="F1994" t="s">
         <v>1485</v>
       </c>
@@ -82479,6 +82773,9 @@
       <c r="C1999" t="s">
         <v>5</v>
       </c>
+      <c r="D1999" t="s">
+        <v>8</v>
+      </c>
       <c r="F1999" t="s">
         <v>214</v>
       </c>
@@ -82514,6 +82811,9 @@
       <c r="C2000" t="s">
         <v>5</v>
       </c>
+      <c r="D2000" t="s">
+        <v>8</v>
+      </c>
       <c r="F2000" t="s">
         <v>1489</v>
       </c>
@@ -82660,6 +82960,9 @@
       <c r="C2004" t="s">
         <v>5</v>
       </c>
+      <c r="D2004" t="s">
+        <v>8</v>
+      </c>
       <c r="F2004" t="s">
         <v>1148</v>
       </c>
@@ -84090,6 +84393,9 @@
       <c r="C2044" t="s">
         <v>5</v>
       </c>
+      <c r="D2044" t="s">
+        <v>8</v>
+      </c>
       <c r="F2044" t="s">
         <v>1524</v>
       </c>
@@ -84233,6 +84539,9 @@
       <c r="C2048" t="s">
         <v>5</v>
       </c>
+      <c r="D2048" t="s">
+        <v>8</v>
+      </c>
       <c r="F2048" t="s">
         <v>214</v>
       </c>
@@ -85126,6 +85435,9 @@
       <c r="C2073" t="s">
         <v>5</v>
       </c>
+      <c r="D2073" t="s">
+        <v>8</v>
+      </c>
       <c r="F2073" t="s">
         <v>117</v>
       </c>
@@ -85949,6 +86261,9 @@
       <c r="C2096" t="s">
         <v>5</v>
       </c>
+      <c r="D2096" t="s">
+        <v>8</v>
+      </c>
       <c r="F2096" t="s">
         <v>1564</v>
       </c>
@@ -86276,6 +86591,9 @@
       <c r="C2105" t="s">
         <v>5</v>
       </c>
+      <c r="D2105" t="s">
+        <v>8</v>
+      </c>
       <c r="F2105" t="s">
         <v>1573</v>
       </c>
@@ -88134,6 +88452,9 @@
       <c r="C2155" t="s">
         <v>5</v>
       </c>
+      <c r="D2155" t="s">
+        <v>8</v>
+      </c>
       <c r="F2155" t="s">
         <v>1604</v>
       </c>
@@ -89100,6 +89421,9 @@
       <c r="C2182" t="s">
         <v>5</v>
       </c>
+      <c r="D2182" t="s">
+        <v>8</v>
+      </c>
       <c r="F2182" t="s">
         <v>1627</v>
       </c>
@@ -89208,6 +89532,9 @@
       <c r="C2185" t="s">
         <v>5</v>
       </c>
+      <c r="D2185" t="s">
+        <v>8</v>
+      </c>
       <c r="F2185" t="s">
         <v>214</v>
       </c>
@@ -89316,6 +89643,9 @@
       <c r="C2188" t="s">
         <v>5</v>
       </c>
+      <c r="D2188" t="s">
+        <v>8</v>
+      </c>
       <c r="F2188" t="s">
         <v>1630</v>
       </c>
@@ -89351,6 +89681,9 @@
       <c r="C2189" t="s">
         <v>5</v>
       </c>
+      <c r="D2189" t="s">
+        <v>8</v>
+      </c>
       <c r="F2189" t="s">
         <v>1631</v>
       </c>
@@ -90318,6 +90651,9 @@
       <c r="C2215" t="s">
         <v>5</v>
       </c>
+      <c r="D2215" t="s">
+        <v>8</v>
+      </c>
       <c r="F2215" t="s">
         <v>1646</v>
       </c>
@@ -90385,6 +90721,9 @@
       <c r="C2217" t="s">
         <v>5</v>
       </c>
+      <c r="D2217" t="s">
+        <v>8</v>
+      </c>
       <c r="F2217" t="s">
         <v>1646</v>
       </c>
@@ -90566,6 +90905,9 @@
       <c r="C2222" t="s">
         <v>5</v>
       </c>
+      <c r="D2222" t="s">
+        <v>8</v>
+      </c>
       <c r="F2222" t="s">
         <v>1650</v>
       </c>
@@ -92690,6 +93032,9 @@
       <c r="C2279" t="s">
         <v>5</v>
       </c>
+      <c r="D2279" t="s">
+        <v>8</v>
+      </c>
       <c r="F2279" t="s">
         <v>1679</v>
       </c>
@@ -92725,6 +93070,9 @@
       <c r="C2280" t="s">
         <v>5</v>
       </c>
+      <c r="D2280" t="s">
+        <v>8</v>
+      </c>
       <c r="F2280" t="s">
         <v>1680</v>
       </c>
@@ -92827,6 +93175,9 @@
       <c r="C2283" t="s">
         <v>5</v>
       </c>
+      <c r="D2283" t="s">
+        <v>8</v>
+      </c>
       <c r="F2283" t="s">
         <v>1683</v>
       </c>
@@ -92900,6 +93251,9 @@
       <c r="C2285" t="s">
         <v>5</v>
       </c>
+      <c r="D2285" t="s">
+        <v>8</v>
+      </c>
       <c r="F2285" t="s">
         <v>214</v>
       </c>
@@ -92966,6 +93320,9 @@
       </c>
       <c r="C2287" t="s">
         <v>5</v>
+      </c>
+      <c r="D2287" t="s">
+        <v>8</v>
       </c>
       <c r="F2287" t="s">
         <v>1679</v>
